--- a/doc/excel/党建/[sample_member_update]组织关系批量调整导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_update]组织关系批量调整导入样表.xlsx
@@ -194,7 +194,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +221,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,15 +546,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="10" customWidth="1"/>
     <col min="5" max="5" width="33.125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
@@ -560,10 +566,10 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>

--- a/doc/excel/党建/[sample_member_update]组织关系批量调整导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_update]组织关系批量调整导入样表.xlsx
@@ -40,17 +40,18 @@
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="14"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>导入说明：</t>
+      <t xml:space="preserve">
+导入说明：</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -63,26 +64,62 @@
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2、二级党委名称及党支部名称同系统内的名称必须保持完全一致，否则系统会自动新建二级党委或支部；如果是直属党支部，党支部名称请留空；
-</t>
+      <t>2、二级党委名称同系统内的名称必须保持完全一致，如果是新成立的二级党委，请先在系统中创建。</t>
     </r>
     <r>
       <rPr>
-        <sz val="18"/>
+        <sz val="14"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3、新成立的二级党委或党支部名称尽量同系统里的命名规范保持一致，系统将在基层党组织中自动创建该二级党委或党支部；
-3、导入成功后，会导出一个导入结果文件，可在每行的最后一列查看导入结果明细；</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3、对于已经存在的党支部，支部名称同系统内的名称必须保持完全一致；如果是直属党支部，党支部名称请留空；
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">新成立的党支部系统将在基层党组织中自动创建该党支部；
+4、导入成功后，系统将导出一个结果明细文件，可在每行的最后一列查看导入结果；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5、导入前请务必删除此说明框；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,7 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -155,16 +193,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -219,14 +264,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,15 +591,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="33.125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
@@ -566,10 +611,10 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -583,54 +628,54 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
   </sheetData>
   <dataConsolidate/>
